--- a/data/mapping_country_FAO_FABLE.xlsx
+++ b/data/mapping_country_FAO_FABLE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\SOFA 2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C803F2-EDD4-4DFE-9E1C-FC1F3B7A92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29088E88-CC5E-4EE7-BE78-9BABB5116066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="190">
   <si>
     <t>R_MECAS</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Somalia</t>
   </si>
   <si>
-    <t>SouthAfrica</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>NPL</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
   </si>
 </sst>
 </file>
@@ -974,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796C05A3-0AA5-4E38-8E29-F0318BDEE91A}">
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,10 +988,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -1143,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1223,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1255,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1279,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1303,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1311,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1319,7 +1319,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1343,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1367,23 +1367,23 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>187</v>
+      <c r="B49" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" t="s">
-        <v>178</v>
+      <c r="B50" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1391,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1399,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1407,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1415,15 +1415,15 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1431,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1439,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1447,7 +1447,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1463,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1471,7 +1471,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1479,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1487,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1495,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1503,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1511,23 +1511,23 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1535,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1543,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1559,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1591,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1615,15 +1615,15 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1631,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1639,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1647,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1663,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1671,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1679,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1687,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1695,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1703,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1711,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1719,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1735,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1743,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1759,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1799,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1807,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1815,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1823,15 +1823,15 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -2063,15 +2063,15 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -2087,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -2095,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -2119,7 +2119,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -2135,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -2143,31 +2143,31 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -2175,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -2199,7 +2199,7 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -2207,23 +2207,23 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,23 +2231,23 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="B158" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -2255,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -2263,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -2271,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -2279,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2287,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -2295,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -2319,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -2327,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -2343,7 +2343,7 @@
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -2351,61 +2351,69 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>156</v>
+      </c>
+      <c r="B178" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B177" xr:uid="{6D9FB0D2-2FAD-444A-9B11-CF647B687EC8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B177">
-      <sortCondition ref="A1:A177"/>
+  <autoFilter ref="A1:B178" xr:uid="{6D9FB0D2-2FAD-444A-9B11-CF647B687EC8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B178">
+      <sortCondition ref="A1:A178"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/mapping_country_FAO_FABLE.xlsx
+++ b/data/mapping_country_FAO_FABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29088E88-CC5E-4EE7-BE78-9BABB5116066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C7D9F-C556-4899-9754-F8BFD8D2DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="190">
-  <si>
-    <t>R_MECAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="191">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -54,9 +51,6 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>R_AFR</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -78,18 +72,12 @@
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>R_LAM</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
     <t>Bahrain</t>
   </si>
   <si>
-    <t>R_ASIPAC</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -351,9 +339,6 @@
     <t>Nepal</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -607,6 +592,24 @@
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>R_SSA</t>
+  </si>
+  <si>
+    <t>R_ASP</t>
+  </si>
+  <si>
+    <t>R_CSA</t>
+  </si>
+  <si>
+    <t>R_NMC</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Netherlands (Kingdom of the)</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
   <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,1426 +991,1426 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>147</v>
+        <v>185</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" t="s">
         <v>0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B114" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>2</v>
-      </c>
-      <c r="B140" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B174" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B176" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/mapping_country_FAO_FABLE.xlsx
+++ b/data/mapping_country_FAO_FABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\GitHub\Country_Snapshots\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C7D9F-C556-4899-9754-F8BFD8D2DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B87B4EE-9AC4-4FB6-9494-AE569A549786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48BE82F7-36F5-488F-A57D-921D79BDD5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,29 +594,29 @@
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
-    <t>R_SSA</t>
-  </si>
-  <si>
-    <t>R_ASP</t>
-  </si>
-  <si>
-    <t>R_CSA</t>
-  </si>
-  <si>
-    <t>R_NMC</t>
-  </si>
-  <si>
     <t>Türkiye</t>
   </si>
   <si>
     <t>Netherlands (Kingdom of the)</t>
+  </si>
+  <si>
+    <t>R_ASIPAC</t>
+  </si>
+  <si>
+    <t>R_LAM</t>
+  </si>
+  <si>
+    <t>R_MECAS</t>
+  </si>
+  <si>
+    <t>R_AFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +631,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -659,10 +665,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796C05A3-0AA5-4E38-8E29-F0318BDEE91A}">
   <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,1242 +1134,1242 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B146" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B147" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B158" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B159" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B161" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B162" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B164" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" t="s">
-        <v>190</v>
+        <v>190</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -2390,11 +2397,11 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>189</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="A176" s="3" t="s">
         <v>145</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -2420,5 +2427,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>